--- a/data/trans_bre/P16A18-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A18-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/trans_bre/P16A18-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1108,114 +1108,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
